--- a/biology/Histoire de la zoologie et de la botanique/Ferdinand_Canu/Ferdinand_Canu.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ferdinand_Canu/Ferdinand_Canu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ferdinand Canu est un paléontologue français né à Paris le 8 décembre 1863 et décédé à Versailles le 12 février 1932[1]. En 1923, il a obtenu la Médaille Daniel Giraud Elliot pour son travail North American Later Tertiary and Quaternary Bryozoa[2]. Il est nommé chevalier de la Légion d'honneur le 21 avril 1931[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferdinand Canu est un paléontologue français né à Paris le 8 décembre 1863 et décédé à Versailles le 12 février 1932. En 1923, il a obtenu la Médaille Daniel Giraud Elliot pour son travail North American Later Tertiary and Quaternary Bryozoa. Il est nommé chevalier de la Légion d'honneur le 21 avril 1931.
 </t>
         </is>
       </c>
@@ -513,24 +525,199 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1919
-(en) Canu F. &amp; Bassler R.S., 1919. Fossil Bryozoa from the West Indies. Publications of the Carnegie Institution.
-1925
-Canu F. &amp; Bassler R.S., 1925. Contribution à l'étude des Bryozoaires d'Autriche et de Hongrie. Bulletin de la Société Géologique de France.
-Canu F. &amp; Bassler R.S., 1925. Les Bryozoaires du Maroc et de Mauritanie. Mémoires de la Société des Sciences naturelles du Maroc. 10: 1–79.
-1927
-(en) Canu F. &amp; Bassler R.S., 1927. Classification of the cheilostomatous Bryozoa. Proceedings of the United States National …
-Canu F. &amp; Lecointre G., 1927. Les Bryozoaires du Néogène de l'Ouest de la France et leur signification stratigraphique et paléobiologique. Mémoires du Muséum national d'histoire naturelle, c, vol. 6,, pp. 1-436  (ISSN 1243-4442).
-1928
-Canu F. &amp; Bassler R.S., 1928. Les Bryozoaires du Maroc et de Mauritanie, 2ème Mémoire. Mémoires de la Société des Sciences naturelles du Maroc. 18: 1–85.
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Canu F. &amp; Bassler R.S., 1919. Fossil Bryozoa from the West Indies. Publications of the Carnegie Institution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ferdinand_Canu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Canu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Canu F. &amp; Bassler R.S., 1925. Contribution à l'étude des Bryozoaires d'Autriche et de Hongrie. Bulletin de la Société Géologique de France.
+Canu F. &amp; Bassler R.S., 1925. Les Bryozoaires du Maroc et de Mauritanie. Mémoires de la Société des Sciences naturelles du Maroc. 10: 1–79.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ferdinand_Canu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Canu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Canu F. &amp; Bassler R.S., 1927. Classification of the cheilostomatous Bryozoa. Proceedings of the United States National …
+Canu F. &amp; Lecointre G., 1927. Les Bryozoaires du Néogène de l'Ouest de la France et leur signification stratigraphique et paléobiologique. Mémoires du Muséum national d'histoire naturelle, c, vol. 6 pp. 1-436  (ISSN 1243-4442).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ferdinand_Canu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Canu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Canu F. &amp; Bassler R.S., 1928. Les Bryozoaires du Maroc et de Mauritanie, 2ème Mémoire. Mémoires de la Société des Sciences naturelles du Maroc. 18: 1–85.
 Canu F. &amp; Bassler R.S., 1928. Bryozoaires du Brésil. Bulletin de la Société des Sciences de Seine-et-Oise. 9: 58–110.
-Canu F. &amp; Lecointre G., 1928. Les Bryozoaires cheilostomes des faluns de Touraine et d'Anjou. Mémoire de la Société géologique de France, vol. 4, n. 4, pp. 51-82.
-1930
-(en) Canu F. &amp; Bassler R.S., 1930. The bryozoan fauna of the Galapagos Islands. Proceedings of the United States National …
+Canu F. &amp; Lecointre G., 1928. Les Bryozoaires cheilostomes des faluns de Touraine et d'Anjou. Mémoire de la Société géologique de France, vol. 4, n. 4, pp. 51-82.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ferdinand_Canu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Canu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1930</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Canu F. &amp; Bassler R.S., 1930. The bryozoan fauna of the Galapagos Islands. Proceedings of the United States National …
 Canu F. &amp; Bassler R.S., 1930. Bryozoaires marins de Tunisie. Annales de la Station océanographique de Salambô. 5: 1–91.
-Canu F. &amp; Lecointre G., 1930. Les Bryozoaires Cheilostomes des faluns de Touraine et d'Anjou. Mémoire de la Société Géologique de France, vol. 6, n. 4, pp. 83-130.
-1934
-Canu F. &amp; Lecointre G., 1934. Les Bryozoaires Cyclostomes des faluns de Touraine et d'Anjou. Mémoire de la Société Géologique de France, t. 9, n°4, pp. 179-215.</t>
+Canu F. &amp; Lecointre G., 1930. Les Bryozoaires Cheilostomes des faluns de Touraine et d'Anjou. Mémoire de la Société Géologique de France, vol. 6, n. 4, pp. 83-130.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ferdinand_Canu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferdinand_Canu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Canu F. &amp; Lecointre G., 1934. Les Bryozoaires Cyclostomes des faluns de Touraine et d'Anjou. Mémoire de la Société Géologique de France, t. 9, n°4, pp. 179-215.</t>
         </is>
       </c>
     </row>
